--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/KPIT Technologies Ltd/Pruned_Excel/Semi_Final/KPIT Technologies Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/KPIT Technologies Ltd/Pruned_Excel/Semi_Final/KPIT Technologies Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="98">
   <si>
     <t>Balance Sheet of KPIT Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,19 +62,22 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of KPIT Technologies(in Rs. Cr.)</t>
@@ -170,9 +176,6 @@
     <t>Quarterly Results of KPIT Technologies(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -236,28 +239,10 @@
     <t>2019</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -684,13 +669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,209 +715,227 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>268.88</v>
-      </c>
-      <c r="C2">
-        <v>755.86</v>
       </c>
       <c r="D2">
         <v>755.86</v>
       </c>
       <c r="E2">
+        <v>755.86</v>
+      </c>
+      <c r="F2">
         <v>1024.74</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>142.7</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>209.53</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1325.33</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>302.48</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>352.32</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>883.73</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>441.59</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1325.33</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>269.04</v>
-      </c>
-      <c r="C3">
-        <v>779.22</v>
       </c>
       <c r="D3">
         <v>779.22</v>
       </c>
       <c r="E3">
+        <v>779.22</v>
+      </c>
+      <c r="F3">
         <v>1048.27</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>135.53</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>200.49</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1319.76</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>253.32</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>291.33</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>634.6900000000001</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>685.0700000000001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1319.76</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>270.02</v>
-      </c>
-      <c r="C4">
-        <v>948.83</v>
       </c>
       <c r="D4">
         <v>948.83</v>
       </c>
       <c r="E4">
+        <v>948.83</v>
+      </c>
+      <c r="F4">
         <v>1218.84</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>246.76</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>344.86</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1724.2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>275.06</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>299.84</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>858.98</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>865.22</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1724.2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>270.35</v>
-      </c>
-      <c r="C5">
-        <v>1113.38</v>
       </c>
       <c r="D5">
         <v>1113.38</v>
       </c>
       <c r="E5">
+        <v>1113.38</v>
+      </c>
+      <c r="F5">
         <v>1383.73</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>274.4</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>353.22</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1821.35</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>255.29</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>311.89</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1223.5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>597.85</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1821.35</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>271.22</v>
-      </c>
-      <c r="C6">
-        <v>1330.83</v>
       </c>
       <c r="D6">
         <v>1330.83</v>
       </c>
       <c r="E6">
+        <v>1330.83</v>
+      </c>
+      <c r="F6">
         <v>1602.05</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>335.51</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>458.28</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2152.66</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>280.97</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>312.03</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1389.98</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>762.67</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2152.66</v>
       </c>
     </row>
@@ -943,183 +946,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>178.45</v>
+      </c>
+      <c r="D2">
+        <v>243.84</v>
+      </c>
+      <c r="E2">
+        <v>-80.33</v>
+      </c>
+      <c r="F2">
+        <v>-158.89</v>
+      </c>
+      <c r="G2">
+        <v>1.89</v>
+      </c>
+      <c r="H2">
+        <v>6.51</v>
+      </c>
+      <c r="I2">
+        <v>38.99</v>
+      </c>
+      <c r="J2">
+        <v>45.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>93.53</v>
+      </c>
+      <c r="D3">
+        <v>417.8</v>
+      </c>
+      <c r="E3">
+        <v>-362.74</v>
+      </c>
+      <c r="F3">
+        <v>-77.79000000000001</v>
+      </c>
+      <c r="G3">
+        <v>-1.55</v>
+      </c>
+      <c r="H3">
+        <v>-24.28</v>
+      </c>
+      <c r="I3">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J3">
+        <v>43.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>238.12</v>
+      </c>
+      <c r="D4">
+        <v>291.73</v>
+      </c>
+      <c r="E4">
+        <v>-197.28</v>
+      </c>
+      <c r="F4">
+        <v>-92.14</v>
+      </c>
+      <c r="G4">
+        <v>-0.27</v>
+      </c>
+      <c r="H4">
+        <v>2.03</v>
+      </c>
+      <c r="I4">
+        <v>43.83</v>
+      </c>
+      <c r="J4">
+        <v>45.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>280.16</v>
+      </c>
+      <c r="D5">
+        <v>203.91</v>
+      </c>
+      <c r="E5">
+        <v>-45.69</v>
+      </c>
+      <c r="F5">
+        <v>-131.89</v>
+      </c>
+      <c r="G5">
+        <v>-0.89</v>
+      </c>
+      <c r="H5">
+        <v>25.45</v>
+      </c>
+      <c r="I5">
+        <v>45.86</v>
+      </c>
+      <c r="J5">
+        <v>71.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>178.45</v>
-      </c>
-      <c r="C2">
-        <v>243.84</v>
-      </c>
-      <c r="D2">
-        <v>-80.33</v>
-      </c>
-      <c r="E2">
-        <v>-158.89</v>
-      </c>
-      <c r="F2">
-        <v>1.89</v>
-      </c>
-      <c r="G2">
-        <v>6.51</v>
-      </c>
-      <c r="H2">
-        <v>38.99</v>
-      </c>
-      <c r="I2">
-        <v>45.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>93.53</v>
-      </c>
-      <c r="C3">
-        <v>417.8</v>
-      </c>
-      <c r="D3">
-        <v>-362.74</v>
-      </c>
-      <c r="E3">
-        <v>-77.79000000000001</v>
-      </c>
-      <c r="F3">
-        <v>-1.55</v>
-      </c>
-      <c r="G3">
-        <v>-24.28</v>
-      </c>
-      <c r="H3">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="I3">
-        <v>43.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>238.12</v>
-      </c>
-      <c r="C4">
-        <v>291.73</v>
-      </c>
-      <c r="D4">
-        <v>-197.28</v>
-      </c>
-      <c r="E4">
-        <v>-92.14</v>
-      </c>
-      <c r="F4">
-        <v>-0.27</v>
-      </c>
-      <c r="G4">
-        <v>2.03</v>
-      </c>
-      <c r="H4">
-        <v>43.83</v>
-      </c>
-      <c r="I4">
-        <v>45.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>280.16</v>
-      </c>
-      <c r="C5">
-        <v>203.91</v>
-      </c>
-      <c r="D5">
-        <v>-45.69</v>
-      </c>
-      <c r="E5">
-        <v>-131.89</v>
-      </c>
-      <c r="F5">
-        <v>-0.89</v>
-      </c>
-      <c r="G5">
-        <v>25.45</v>
-      </c>
-      <c r="H5">
-        <v>45.86</v>
-      </c>
-      <c r="I5">
+      <c r="C6">
+        <v>438.05</v>
+      </c>
+      <c r="D6">
+        <v>512.3200000000001</v>
+      </c>
+      <c r="E6">
+        <v>-331.23</v>
+      </c>
+      <c r="F6">
+        <v>-154.62</v>
+      </c>
+      <c r="G6">
+        <v>2.05</v>
+      </c>
+      <c r="H6">
+        <v>28.52</v>
+      </c>
+      <c r="I6">
         <v>71.31</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>438.05</v>
-      </c>
-      <c r="C6">
-        <v>512.3200000000001</v>
-      </c>
-      <c r="D6">
-        <v>-331.23</v>
-      </c>
-      <c r="E6">
-        <v>-154.62</v>
-      </c>
-      <c r="F6">
-        <v>2.05</v>
-      </c>
-      <c r="G6">
-        <v>28.52</v>
-      </c>
-      <c r="H6">
-        <v>71.31</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
         <v>99.81999999999999</v>
       </c>
     </row>
@@ -1130,86 +1151,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>955.25</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2">
         <v>955.25</v>
@@ -1218,46 +1242,46 @@
         <v>955.25</v>
       </c>
       <c r="E2">
+        <v>955.25</v>
+      </c>
+      <c r="F2">
         <v>23.19</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>978.4400000000001</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>532.49</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>15.11</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>83.7</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>145.97</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>777.4</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>201.04</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>197.38</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>46.9</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-27.97</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>18.93</v>
-      </c>
-      <c r="R2">
-        <v>178.45</v>
       </c>
       <c r="S2">
         <v>178.45</v>
@@ -1266,18 +1290,21 @@
         <v>178.45</v>
       </c>
       <c r="U2">
+        <v>178.45</v>
+      </c>
+      <c r="V2">
         <v>6.64</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>6.62</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>802.85</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
         <v>802.85</v>
@@ -1286,46 +1313,46 @@
         <v>802.85</v>
       </c>
       <c r="E3">
+        <v>802.85</v>
+      </c>
+      <c r="F3">
         <v>17.59</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>820.4400000000001</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>487.57</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8.640000000000001</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>91.11</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>136.92</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>724.29</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>96.15000000000001</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>99.34999999999999</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>19.35</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-13.53</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5.83</v>
-      </c>
-      <c r="R3">
-        <v>93.53</v>
       </c>
       <c r="S3">
         <v>93.53</v>
@@ -1334,18 +1361,21 @@
         <v>93.53</v>
       </c>
       <c r="U3">
+        <v>93.53</v>
+      </c>
+      <c r="V3">
         <v>3.48</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3.46</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1180.99</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1180.99</v>
@@ -1354,46 +1384,46 @@
         <v>1180.99</v>
       </c>
       <c r="E4">
+        <v>1180.99</v>
+      </c>
+      <c r="F4">
         <v>77.27</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1258.26</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>704.8099999999999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10.86</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>81.58</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>184.45</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>981.6900000000001</v>
-      </c>
-      <c r="M4">
-        <v>276.57</v>
       </c>
       <c r="N4">
         <v>276.57</v>
       </c>
       <c r="O4">
+        <v>276.57</v>
+      </c>
+      <c r="P4">
         <v>51.15</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-12.7</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>38.45</v>
-      </c>
-      <c r="R4">
-        <v>238.12</v>
       </c>
       <c r="S4">
         <v>238.12</v>
@@ -1402,66 +1432,69 @@
         <v>238.12</v>
       </c>
       <c r="U4">
+        <v>238.12</v>
+      </c>
+      <c r="V4">
         <v>8.83</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>8.73</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>1514.8</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1514.8</v>
       </c>
       <c r="D5">
+        <v>1514.8</v>
+      </c>
+      <c r="E5">
         <v>1516.43</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>42.36</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1558.79</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>887.33</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>14.68</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>90.52</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>200.7</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1193.23</v>
-      </c>
-      <c r="M5">
-        <v>365.55</v>
       </c>
       <c r="N5">
         <v>365.55</v>
       </c>
       <c r="O5">
+        <v>365.55</v>
+      </c>
+      <c r="P5">
         <v>85.77</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-0.38</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>85.39</v>
-      </c>
-      <c r="R5">
-        <v>280.16</v>
       </c>
       <c r="S5">
         <v>280.16</v>
@@ -1470,18 +1503,21 @@
         <v>280.16</v>
       </c>
       <c r="U5">
+        <v>280.16</v>
+      </c>
+      <c r="V5">
         <v>10.37</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>10.26</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>2016.6</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2016.6</v>
@@ -1490,46 +1526,46 @@
         <v>2016.6</v>
       </c>
       <c r="E6">
+        <v>2016.6</v>
+      </c>
+      <c r="F6">
         <v>68.61</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2085.22</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1241.11</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14.55</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>102.85</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>288.65</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1647.17</v>
-      </c>
-      <c r="M6">
-        <v>438.05</v>
       </c>
       <c r="N6">
         <v>438.05</v>
       </c>
       <c r="O6">
+        <v>438.05</v>
+      </c>
+      <c r="P6">
         <v>108.53</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2.69</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>111.22</v>
-      </c>
-      <c r="R6">
-        <v>326.83</v>
       </c>
       <c r="S6">
         <v>326.83</v>
@@ -1538,9 +1574,12 @@
         <v>326.83</v>
       </c>
       <c r="U6">
+        <v>326.83</v>
+      </c>
+      <c r="V6">
         <v>12.06</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>11.97</v>
       </c>
     </row>
@@ -1559,84 +1598,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1701,13 +1740,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1772,13 +1811,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>230.3</v>
@@ -1843,13 +1882,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>208.26</v>
@@ -1914,13 +1953,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>299.93</v>
@@ -1985,13 +2024,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>229.28</v>
@@ -2056,13 +2095,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>217.78</v>
@@ -2127,13 +2166,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>178.06</v>
@@ -2198,13 +2237,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>190.68</v>
@@ -2269,13 +2308,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>198.25</v>
@@ -2340,13 +2379,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>237.27</v>
@@ -2411,13 +2450,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>253.39</v>
@@ -2482,13 +2521,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <v>290.5</v>
@@ -2553,13 +2592,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>305.19</v>
@@ -2624,13 +2663,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>331.92</v>
@@ -2695,13 +2734,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D17">
         <v>354.79</v>
@@ -2766,13 +2805,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>357.57</v>
@@ -2837,13 +2876,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>379.94</v>
@@ -2908,13 +2947,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D20">
         <v>424.13</v>
@@ -2979,13 +3018,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <v>444.96</v>
@@ -3050,13 +3089,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22">
         <v>503.41</v>
@@ -3121,13 +3160,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <v>522.02</v>
@@ -3192,13 +3231,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D24">
         <v>546.22</v>
@@ -3263,13 +3302,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>568.4400000000001</v>
@@ -3334,13 +3373,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
       </c>
       <c r="D26">
         <v>684.72</v>
@@ -3410,164 +3449,170 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>35.53</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11.15</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8.039999999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.34</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6.64</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>31.38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.62</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20.66</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>18.68</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>17.41</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>13.46</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.02</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>26.35</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>17.93</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>73.65000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>924.36</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3.08</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>29.84</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7.28</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.89</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.69</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.48</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>24.4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13.05</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12.37</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>11.64</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>8.92</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7.08</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -3578,177 +3623,189 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>4455.81</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>22.75</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>43.74</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>13.67</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10.64</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10.24</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8.82</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>31.24</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>24.33</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>23.41</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>20.16</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>19.53</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>13.81</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>31.13</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>23.18</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>68.87</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15781.11</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>42.77</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>56.09</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>17.41</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>14.06</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>13.52</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10.36</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>31.04</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>25.07</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>24.1</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>18.47</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>20.24</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>15.38</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>31.82</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>24.05</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>68.18000000000001</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>24912.65</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>52.92</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>74.34999999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20.48</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>16.69</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>16.15</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>12.05</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27.54</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22.44</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>21.72</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16.2</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>20.4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>15.18</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>39.38</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>29.95</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>60.62</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>40187.55</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>72.34999999999999</v>
       </c>
     </row>
